--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources1/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources1/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources1\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04065A3B-400A-4972-94A4-E7018C4ED49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B9A23-4F01-44E1-9E82-DFE3F8AC8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="671">
   <si>
     <t>nActi</t>
   </si>
@@ -2742,6 +2742,9 @@
   </si>
   <si>
     <t>box</t>
+  </si>
+  <si>
+    <t>dien</t>
   </si>
 </sst>
 </file>
@@ -3303,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3321,7 +3324,7 @@
     <col min="12" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3359,10 +3362,13 @@
         <v>592</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="207.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="207.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -3402,8 +3408,11 @@
       <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -3441,10 +3450,13 @@
         <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -3484,8 +3496,11 @@
       <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -3523,10 +3538,13 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -3566,8 +3584,11 @@
       <c r="M6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="N6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -3607,8 +3628,11 @@
       <c r="M7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -3648,8 +3672,11 @@
       <c r="M8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="N8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -3689,8 +3716,11 @@
       <c r="M9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="N9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3730,8 +3760,11 @@
       <c r="M10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="N10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
@@ -3771,8 +3804,11 @@
       <c r="M11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="N11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -3813,7 +3849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -3853,8 +3889,11 @@
       <c r="M13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="N13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -3894,8 +3933,11 @@
       <c r="M14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -3935,8 +3977,11 @@
       <c r="M15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>32</v>
       </c>
@@ -3976,8 +4021,11 @@
       <c r="M16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="N16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>33</v>
       </c>
@@ -4017,8 +4065,11 @@
       <c r="M17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -9373,10 +9424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9387,7 +9438,7 @@
     <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9428,10 +9479,13 @@
         <v>592</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -9474,8 +9528,11 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -9518,8 +9575,11 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -9562,8 +9622,11 @@
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -9606,8 +9669,11 @@
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -9650,8 +9716,11 @@
       <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -9694,8 +9763,11 @@
       <c r="N7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -9738,8 +9810,11 @@
       <c r="N8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -9782,8 +9857,11 @@
       <c r="N9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -9826,8 +9904,11 @@
       <c r="N10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="O10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
@@ -9870,8 +9951,11 @@
       <c r="N11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="O11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -9914,8 +9998,11 @@
       <c r="N12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="O12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -9958,8 +10045,11 @@
       <c r="N13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>28</v>
       </c>

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources1/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources1/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinhlee\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources1\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources1\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E56B95-85E3-41A2-81E3-9D26EA959B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="556">
   <si>
     <t>nActi</t>
   </si>
@@ -1746,11 +1747,14 @@
   <si>
     <t>5-1-4-3-2</t>
   </si>
+  <si>
+    <t>ENDEND</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2308,11 +2312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2564,7 +2568,9 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
@@ -2577,7 +2583,6 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
@@ -2590,7 +2595,6 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
@@ -2603,7 +2607,6 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
@@ -2616,7 +2619,6 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
@@ -2629,7 +2631,6 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
@@ -2642,7 +2643,6 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
@@ -2655,7 +2655,6 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
@@ -2668,7 +2667,6 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
@@ -2681,7 +2679,6 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
@@ -2694,9 +2691,8 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="4"/>
@@ -2707,15 +2703,14 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2723,10 +2718,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3195,9 +3190,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3205,7 +3200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3414,16 +3409,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3632,20 +3627,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3835,7 +3830,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>555</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="4"/>
@@ -3853,16 +3848,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4732,7 +4727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5983,13 +5978,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -5997,7 +5992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7135,30 +7130,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C18" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C20" r:id="rId15"/>
-    <hyperlink ref="C21" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
-    <hyperlink ref="C30" r:id="rId20"/>
-    <hyperlink ref="C31" r:id="rId21"/>
-    <hyperlink ref="C32" r:id="rId22"/>
-    <hyperlink ref="C33" r:id="rId23"/>
-    <hyperlink ref="C2" r:id="rId24"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
+    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
+    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -7166,7 +7161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7866,30 +7861,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8655,24 +8650,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-1100-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-1100-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-1100-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-1100-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-1100-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-1100-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-1100-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-1100-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-1100-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1100-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-1100-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -8680,7 +8675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -9077,11 +9072,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -9089,10 +9084,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -9318,19 +9313,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -9638,10 +9633,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -9649,10 +9644,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -9818,19 +9813,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B11" sqref="A5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10049,8 +10044,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10058,10 +10053,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -10454,9 +10449,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -10464,12 +10459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10953,10 +10948,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -10964,10 +10959,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
@@ -11307,9 +11302,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
